--- a/Data/预住院总结报表.xlsx
+++ b/Data/预住院总结报表.xlsx
@@ -396,7 +396,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>1352</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -512,94 +512,94 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>48</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>79</v>
+      </c>
+      <c r="M2">
+        <v>64</v>
+      </c>
+      <c r="N2">
+        <v>61</v>
+      </c>
+      <c r="O2">
+        <v>52</v>
+      </c>
+      <c r="P2">
+        <v>65</v>
+      </c>
+      <c r="Q2">
+        <v>49</v>
+      </c>
+      <c r="R2">
         <v>42</v>
       </c>
-      <c r="H2">
-        <v>35</v>
-      </c>
-      <c r="I2">
-        <v>46</v>
-      </c>
-      <c r="J2">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>34</v>
-      </c>
-      <c r="L2">
+      <c r="S2">
+        <v>64</v>
+      </c>
+      <c r="T2">
         <v>58</v>
       </c>
-      <c r="M2">
-        <v>54</v>
-      </c>
-      <c r="N2">
-        <v>41</v>
-      </c>
-      <c r="O2">
+      <c r="U2">
+        <v>66</v>
+      </c>
+      <c r="V2">
+        <v>56</v>
+      </c>
+      <c r="W2">
+        <v>83</v>
+      </c>
+      <c r="X2">
+        <v>55</v>
+      </c>
+      <c r="Y2">
+        <v>62</v>
+      </c>
+      <c r="Z2">
+        <v>62</v>
+      </c>
+      <c r="AA2">
+        <v>71</v>
+      </c>
+      <c r="AB2">
         <v>45</v>
       </c>
-      <c r="P2">
-        <v>54</v>
-      </c>
-      <c r="Q2">
-        <v>44</v>
-      </c>
-      <c r="R2">
-        <v>41</v>
-      </c>
-      <c r="S2">
-        <v>46</v>
-      </c>
-      <c r="T2">
-        <v>50</v>
-      </c>
-      <c r="U2">
-        <v>62</v>
-      </c>
-      <c r="V2">
-        <v>44</v>
-      </c>
-      <c r="W2">
-        <v>66</v>
-      </c>
-      <c r="X2">
-        <v>53</v>
-      </c>
-      <c r="Y2">
-        <v>59</v>
-      </c>
-      <c r="Z2">
+      <c r="AC2">
+        <v>56</v>
+      </c>
+      <c r="AD2">
+        <v>52</v>
+      </c>
+      <c r="AE2">
         <v>42</v>
-      </c>
-      <c r="AA2">
-        <v>62</v>
-      </c>
-      <c r="AB2">
-        <v>40</v>
-      </c>
-      <c r="AC2">
-        <v>50</v>
-      </c>
-      <c r="AD2">
-        <v>46</v>
-      </c>
-      <c r="AE2">
-        <v>36</v>
       </c>
       <c r="AF2">
         <v>32</v>
@@ -646,25 +646,25 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="C2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="F2">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H2">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,6 +963,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1090,14 @@
         <v>201</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1071,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1418,7 +1452,39 @@
         <v>44</v>
       </c>
       <c r="B43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
         <v>48</v>
+      </c>
+      <c r="B47">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>281</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1455,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1463,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1471,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1479,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1487,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1495,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1590,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>1352</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1699,15 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +1716,98 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>142</v>
+      </c>
+      <c r="F2">
+        <v>145</v>
+      </c>
+      <c r="G2">
+        <v>126</v>
+      </c>
+      <c r="H2">
+        <v>165</v>
+      </c>
+      <c r="I2">
+        <v>155</v>
+      </c>
+      <c r="J2">
+        <v>145</v>
+      </c>
+      <c r="K2">
+        <v>176</v>
+      </c>
+      <c r="L2">
+        <v>280</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -1689,89 +1855,6 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>188</v>
-      </c>
-      <c r="E2">
-        <v>142</v>
-      </c>
-      <c r="F2">
-        <v>145</v>
-      </c>
-      <c r="G2">
-        <v>126</v>
-      </c>
-      <c r="H2">
-        <v>165</v>
-      </c>
-      <c r="I2">
-        <v>155</v>
-      </c>
-      <c r="J2">
-        <v>145</v>
-      </c>
-      <c r="K2">
-        <v>176</v>
-      </c>
-      <c r="L2">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2">
         <v>6</v>
       </c>
       <c r="C2">
@@ -1800,6 +1883,9 @@
       </c>
       <c r="K2">
         <v>201</v>
+      </c>
+      <c r="L2">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1809,13 +1895,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:47">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1942,8 +2028,20 @@
       <c r="AQ1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1">
+        <v>45</v>
+      </c>
+      <c r="AS1">
+        <v>46</v>
+      </c>
+      <c r="AT1">
+        <v>47</v>
+      </c>
+      <c r="AU1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -2071,7 +2169,19 @@
         <v>64</v>
       </c>
       <c r="AQ2">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="AR2">
+        <v>59</v>
+      </c>
+      <c r="AS2">
+        <v>75</v>
+      </c>
+      <c r="AT2">
+        <v>64</v>
+      </c>
+      <c r="AU2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
